--- a/HPGL.xlsx
+++ b/HPGL.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddavies\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itrdcrossfit\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HT" sheetId="1" r:id="rId1"/>
+    <sheet name="Missing" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="143">
   <si>
     <t>William Barber</t>
   </si>
@@ -200,9 +201,6 @@
     <t>Oliver</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
     <t>Al-Jezrawy</t>
   </si>
   <si>
@@ -281,9 +279,6 @@
     <t>Lossia</t>
   </si>
   <si>
-    <t>Moore</t>
-  </si>
-  <si>
     <t>Morgan</t>
   </si>
   <si>
@@ -323,9 +318,6 @@
     <t>Smith, Robin</t>
   </si>
   <si>
-    <t>Sparks</t>
-  </si>
-  <si>
     <t>Swift</t>
   </si>
   <si>
@@ -374,69 +366,117 @@
     <t>Sparks, Michael</t>
   </si>
   <si>
-    <t>Berry</t>
-  </si>
-  <si>
     <t>Bowman</t>
   </si>
   <si>
     <t>Day</t>
   </si>
   <si>
-    <t>Denny</t>
-  </si>
-  <si>
-    <t>Dumus</t>
-  </si>
-  <si>
     <t>Haynes</t>
   </si>
   <si>
-    <t>Huntington</t>
-  </si>
-  <si>
-    <t>Jorgensen</t>
-  </si>
-  <si>
-    <t>Kirkland</t>
-  </si>
-  <si>
-    <t>Ledden</t>
-  </si>
-  <si>
-    <t>Malcom</t>
-  </si>
-  <si>
-    <t>Manning</t>
-  </si>
-  <si>
-    <t>Moree</t>
-  </si>
-  <si>
     <t>Prylepskyi</t>
   </si>
   <si>
-    <t>Romesburg</t>
-  </si>
-  <si>
-    <t>Stewart</t>
-  </si>
-  <si>
-    <t>Companions</t>
-  </si>
-  <si>
-    <t>Brossiet</t>
-  </si>
-  <si>
     <t>Reese</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Joy Davies</t>
+  </si>
+  <si>
+    <t>Lance Reese</t>
+  </si>
+  <si>
+    <t>Unassigned</t>
+  </si>
+  <si>
+    <t>No Contact / Unknown</t>
+  </si>
+  <si>
+    <t>Sparks, Nicole</t>
+  </si>
+  <si>
+    <t>Shirley Ann Berry</t>
+  </si>
+  <si>
+    <t>Justin Marshall &amp; Melissa Denny</t>
+  </si>
+  <si>
+    <t>Barabra Dumus</t>
+  </si>
+  <si>
+    <t>Carl Huntington</t>
+  </si>
+  <si>
+    <t>Alyssa Jorgensen</t>
+  </si>
+  <si>
+    <t>Kelli Kirkland</t>
+  </si>
+  <si>
+    <t>Jennifer Ledden</t>
+  </si>
+  <si>
+    <t>Alicia Malcom</t>
+  </si>
+  <si>
+    <t>Danielle Manning</t>
+  </si>
+  <si>
+    <t>Chelsea Moree</t>
+  </si>
+  <si>
+    <t>William Romesburg</t>
+  </si>
+  <si>
+    <t>Michael Stewart</t>
+  </si>
+  <si>
+    <t>Michael Brossiet</t>
+  </si>
+  <si>
+    <t>Davies</t>
+  </si>
+  <si>
+    <t>Bev Hines</t>
+  </si>
+  <si>
+    <t>Moore, Scott</t>
+  </si>
+  <si>
+    <t>Boyles</t>
+  </si>
+  <si>
+    <t>Huntington, El &amp; Nat</t>
+  </si>
+  <si>
+    <t>Katie Jackson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -452,10 +492,232 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -464,8 +726,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,477 +1037,613 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="A29" sqref="A17:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
         <v>19</v>
       </c>
+      <c r="C1" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" t="s">
-        <v>64</v>
-      </c>
+      <c r="A3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
+      <c r="A4" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
+      <c r="A5" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="A6" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J6" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I18" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="J18" t="s">
+      <c r="B7" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="C7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D7" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20" t="s">
-        <v>113</v>
-      </c>
-      <c r="J20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" t="s">
-        <v>121</v>
-      </c>
-      <c r="H22" t="s">
-        <v>122</v>
-      </c>
-      <c r="I22" t="s">
-        <v>123</v>
-      </c>
-      <c r="J22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" t="s">
-        <v>129</v>
-      </c>
-      <c r="G23" t="s">
-        <v>130</v>
-      </c>
-      <c r="H23" t="s">
-        <v>131</v>
-      </c>
-      <c r="I23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" t="s">
-        <v>134</v>
-      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>